--- a/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act15d5 Beyond Here 此地之外 彼方を望む/level_act15d5_st02.xlsx
@@ -2736,7 +2736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aosta"]  What’s wrong?
+    <t xml:space="preserve">[name="Aosta"]  What's wrong?
 </t>
   </si>
   <si>
@@ -3576,7 +3576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aosta"]  ...Tinkinh about it, we really have known each other for a while now.
+    <t xml:space="preserve">[name="Aosta"]  ...Thinking about it, we really have known each other for a while now.
 </t>
   </si>
   <si>
